--- a/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/remove_gscpi.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/remove_gscpi.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>gcu</t>
+          <t>cu</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -545,37 +545,52 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>excess_demand_simul</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>excess_demand_baseline</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>gscpi</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>magpty</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>gscpi_contr_gw</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>gscpi_contr_gcpi</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>gscpi_contr_shortage</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>gscpi_contr_cf1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>gscpi_contr_cf10</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>gscpi_contr_excess_demand</t>
         </is>
       </c>
     </row>
@@ -638,23 +653,23 @@
         <v>1.196216736133376</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.09327418766886808</v>
+        <v>0.04983734759693073</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.819108862458768</v>
+        <v>-0.1085213692111502</v>
       </c>
       <c r="V2" t="n">
+        <v>-0.1085213692111502</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1085213692111502</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.4664039581587493</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>1.128416530824383</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -662,6 +677,15 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -724,23 +748,23 @@
         <v>1.170376301040833</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.119500265224985</v>
+        <v>0.03383990835209155</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.807951322152864</v>
+        <v>-0.09098396086582916</v>
       </c>
       <c r="V3" t="n">
+        <v>-0.09098396086582916</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09098396086582916</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.2929262229925918</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>1.512595805813133</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -748,6 +772,15 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,23 +843,23 @@
         <v>1.218581081081081</v>
       </c>
       <c r="T4" t="n">
-        <v>-3.894031741574366</v>
+        <v>0.02047929813409821</v>
       </c>
       <c r="U4" t="n">
-        <v>-4.802033902115962</v>
+        <v>-0.07805013764303048</v>
       </c>
       <c r="V4" t="n">
+        <v>-0.07805013764303048</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.07805013764303048</v>
+      </c>
+      <c r="X4" t="n">
         <v>-0.3470782337164486</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>1.871596231659467</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -834,6 +867,15 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -896,23 +938,23 @@
         <v>1.203850700895119</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.493109855985253</v>
+        <v>0.01359484608495071</v>
       </c>
       <c r="U5" t="n">
-        <v>-4.797978741841733</v>
+        <v>-0.06752585519471843</v>
       </c>
       <c r="V5" t="n">
+        <v>-0.06752585519471843</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06752585519471843</v>
+      </c>
+      <c r="X5" t="n">
         <v>-0.1832859707783361</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>1.660541678943162</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -920,6 +962,15 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,46 +982,46 @@
         <v>2.89018598441686</v>
       </c>
       <c r="C6" t="n">
-        <v>3.063997709744458</v>
+        <v>2.986472699852389</v>
       </c>
       <c r="D6" t="n">
-        <v>3.063997709744458</v>
+        <v>2.986472699852389</v>
       </c>
       <c r="E6" t="n">
         <v>3.269114943456231</v>
       </c>
       <c r="F6" t="n">
-        <v>3.726722913959353</v>
+        <v>3.429346011158884</v>
       </c>
       <c r="G6" t="n">
-        <v>3.772925235385979</v>
+        <v>3.471513532126307</v>
       </c>
       <c r="H6" t="n">
         <v>4.666666507720947</v>
       </c>
       <c r="I6" t="n">
-        <v>6.244792120238595</v>
+        <v>3.741727381384971</v>
       </c>
       <c r="J6" t="n">
-        <v>6.675019739674919</v>
+        <v>4.134383672306547</v>
       </c>
       <c r="K6" t="n">
         <v>1.70378442</v>
       </c>
       <c r="L6" t="n">
-        <v>1.669864363338028</v>
+        <v>1.64746427265534</v>
       </c>
       <c r="M6" t="n">
-        <v>1.673344580463033</v>
+        <v>1.650640566054859</v>
       </c>
       <c r="N6" t="n">
         <v>1.7145255</v>
       </c>
       <c r="O6" t="n">
-        <v>1.638417323696882</v>
+        <v>1.629385594863342</v>
       </c>
       <c r="P6" t="n">
-        <v>1.639820549148071</v>
+        <v>1.630666278101932</v>
       </c>
       <c r="Q6" t="n">
         <v>12.01264099037156</v>
@@ -982,31 +1033,40 @@
         <v>1.181126331811263</v>
       </c>
       <c r="T6" t="n">
-        <v>-3.205412666923735</v>
+        <v>0.003097988771499527</v>
       </c>
       <c r="U6" t="n">
-        <v>-4.790911058733882</v>
+        <v>-0.05473029219889014</v>
       </c>
       <c r="V6" t="n">
+        <v>0.01141534297403179</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01141534297403179</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.09742270972776415</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>1.729278982489024</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.04620232142662672</v>
-      </c>
       <c r="Z6" t="n">
-        <v>0.4302276194363248</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.003480217125005014</v>
+        <v>0.0421675209674226</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001403225451189094</v>
+        <v>0.3926562909215763</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.003176293399518748</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001280683238590097</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1017,46 +1077,46 @@
         <v>4.011494939246774</v>
       </c>
       <c r="C7" t="n">
-        <v>2.680987275587328</v>
+        <v>2.680200139392773</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68275335477694</v>
+        <v>2.681898241323125</v>
       </c>
       <c r="E7" t="n">
         <v>-0.7616985697598722</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.436123816960702</v>
+        <v>-0.7882185176585684</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8610308717646538</v>
+        <v>-0.2649063089785774</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>6.268872227772521</v>
+        <v>11.77903828896887</v>
       </c>
       <c r="J7" t="n">
-        <v>11.73207911941899</v>
+        <v>16.75034083021996</v>
       </c>
       <c r="K7" t="n">
         <v>0.98707392</v>
       </c>
       <c r="L7" t="n">
-        <v>1.572376376372113</v>
+        <v>1.575641914246726</v>
       </c>
       <c r="M7" t="n">
-        <v>1.622770706495726</v>
+        <v>1.621517967464725</v>
       </c>
       <c r="N7" t="n">
         <v>1.26977517</v>
       </c>
       <c r="O7" t="n">
-        <v>1.557974820022535</v>
+        <v>1.566988621260808</v>
       </c>
       <c r="P7" t="n">
-        <v>1.577097966929351</v>
+        <v>1.58439443092401</v>
       </c>
       <c r="Q7" t="n">
         <v>-41.83859518743878</v>
@@ -1068,31 +1128,40 @@
         <v>1.068356867779204</v>
       </c>
       <c r="T7" t="n">
-        <v>-7.191136656603447</v>
+        <v>-0.01632934159173205</v>
       </c>
       <c r="U7" t="n">
-        <v>-4.772475284455856</v>
+        <v>-0.03173426093010878</v>
       </c>
       <c r="V7" t="n">
+        <v>0.02174473747001837</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.02174827518237343</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.27602885000369</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>1.537662139982121</v>
       </c>
-      <c r="X7" t="n">
-        <v>0.001766079189612135</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.5750929451960487</v>
-      </c>
       <c r="Z7" t="n">
-        <v>5.463206891646474</v>
+        <v>0.001698101930352358</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.05039433012361383</v>
+        <v>0.5233122086799911</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01912314690681605</v>
+        <v>4.971302541251092</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.04587605321799892</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.01740580966320215</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3.537712355061728e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1103,46 +1172,46 @@
         <v>1.422982646210968</v>
       </c>
       <c r="C8" t="n">
-        <v>1.430474905150543</v>
+        <v>1.462524289311559</v>
       </c>
       <c r="D8" t="n">
-        <v>1.455390892462773</v>
+        <v>1.486408610090085</v>
       </c>
       <c r="E8" t="n">
         <v>-1.767392365014331</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9666740321543683</v>
+        <v>-0.7131000689890887</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0877007684786715</v>
+        <v>0.07000761014104331</v>
       </c>
       <c r="H8" t="n">
         <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1174830157744664</v>
+        <v>4.340380254264725</v>
       </c>
       <c r="J8" t="n">
-        <v>9.588970502731973</v>
+        <v>12.79881518197517</v>
       </c>
       <c r="K8" t="n">
         <v>0.51275711</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9867090157993588</v>
+        <v>1.092525375692195</v>
       </c>
       <c r="M8" t="n">
-        <v>1.142926183647703</v>
+        <v>1.233422454505567</v>
       </c>
       <c r="N8" t="n">
         <v>1.23186673</v>
       </c>
       <c r="O8" t="n">
-        <v>1.423347392260243</v>
+        <v>1.448643485276289</v>
       </c>
       <c r="P8" t="n">
-        <v>1.471541942582475</v>
+        <v>1.491993101741177</v>
       </c>
       <c r="Q8" t="n">
         <v>-31.49878239638355</v>
@@ -1154,31 +1223,40 @@
         <v>0.2659460512221248</v>
       </c>
       <c r="T8" t="n">
-        <v>-53.22072952134214</v>
+        <v>-0.1471797616823544</v>
       </c>
       <c r="U8" t="n">
-        <v>-4.637097484124242</v>
+        <v>0.104098170574666</v>
       </c>
       <c r="V8" t="n">
+        <v>0.1272453188542739</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.127299531866532</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.650413416928139</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>3.336048444763229</v>
       </c>
-      <c r="X8" t="n">
-        <v>0.02491598731222933</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.8789732636756968</v>
-      </c>
       <c r="Z8" t="n">
-        <v>9.471487486957507</v>
+        <v>0.02388432077852576</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1562171678483446</v>
+        <v>0.783107679130132</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04819455032223185</v>
+        <v>8.458434927710449</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1408970788133723</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.04334961646488789</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.421301225805308e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1189,46 +1267,46 @@
         <v>2.266295014270625</v>
       </c>
       <c r="C9" t="n">
-        <v>2.174882693458958</v>
+        <v>2.244010302612065</v>
       </c>
       <c r="D9" t="n">
-        <v>2.247239031746194</v>
+        <v>2.312579328959754</v>
       </c>
       <c r="E9" t="n">
         <v>4.708621821546899</v>
       </c>
       <c r="F9" t="n">
-        <v>4.298432354682162</v>
+        <v>3.78766129421627</v>
       </c>
       <c r="G9" t="n">
-        <v>4.424047150802374</v>
+        <v>3.876071545275222</v>
       </c>
       <c r="H9" t="n">
         <v>25.33333396911621</v>
       </c>
       <c r="I9" t="n">
-        <v>19.0833352925749</v>
+        <v>14.03177651115137</v>
       </c>
       <c r="J9" t="n">
-        <v>21.58532461838503</v>
+        <v>16.01338639900145</v>
       </c>
       <c r="K9" t="n">
         <v>1.5827644</v>
       </c>
       <c r="L9" t="n">
-        <v>1.311948529740645</v>
+        <v>1.333696094292655</v>
       </c>
       <c r="M9" t="n">
-        <v>1.481092328565115</v>
+        <v>1.483101355570453</v>
       </c>
       <c r="N9" t="n">
         <v>1.35099923</v>
       </c>
       <c r="O9" t="n">
-        <v>1.544741366463238</v>
+        <v>1.544587811893994</v>
       </c>
       <c r="P9" t="n">
-        <v>1.591917283769665</v>
+        <v>1.586132435805995</v>
       </c>
       <c r="Q9" t="n">
         <v>18.55721009566542</v>
@@ -1240,31 +1318,40 @@
         <v>0.4567430025445293</v>
       </c>
       <c r="T9" t="n">
-        <v>37.57733083758374</v>
+        <v>-0.05272372280058346</v>
       </c>
       <c r="U9" t="n">
-        <v>-4.738912226113569</v>
+        <v>0.004751989929596689</v>
       </c>
       <c r="V9" t="n">
+        <v>0.02529801532724019</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02549544645810187</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.570883874478723</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>3.940007692958902</v>
       </c>
-      <c r="X9" t="n">
-        <v>0.07235633828723564</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.1256147961202121</v>
-      </c>
       <c r="Z9" t="n">
-        <v>2.501989325810136</v>
+        <v>0.06856902634768813</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1691437988244695</v>
+        <v>0.08841025105895239</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.04717591730642745</v>
+        <v>1.981609887850086</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1494052612777972</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.04154462391200031</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0001974311308616805</v>
       </c>
     </row>
     <row r="10">
@@ -1275,46 +1362,46 @@
         <v>3.375547458346162</v>
       </c>
       <c r="C10" t="n">
-        <v>3.048681495404801</v>
+        <v>3.058887662395992</v>
       </c>
       <c r="D10" t="n">
-        <v>3.139811021247704</v>
+        <v>3.14394760202816</v>
       </c>
       <c r="E10" t="n">
         <v>3.073967747275219</v>
       </c>
       <c r="F10" t="n">
-        <v>2.710731039346149</v>
+        <v>3.121473199426365</v>
       </c>
       <c r="G10" t="n">
-        <v>2.971486362465133</v>
+        <v>3.357129115416063</v>
       </c>
       <c r="H10" t="n">
         <v>9.666666984558105</v>
       </c>
       <c r="I10" t="n">
-        <v>4.354954685552684</v>
+        <v>5.705421012371326</v>
       </c>
       <c r="J10" t="n">
-        <v>6.15142737601154</v>
+        <v>7.261067465036381</v>
       </c>
       <c r="K10" t="n">
         <v>1.64952129</v>
       </c>
       <c r="L10" t="n">
-        <v>1.917742470768883</v>
+        <v>1.890547217961762</v>
       </c>
       <c r="M10" t="n">
-        <v>2.005381695100724</v>
+        <v>1.965506508536861</v>
       </c>
       <c r="N10" t="n">
         <v>1.41717038</v>
       </c>
       <c r="O10" t="n">
-        <v>1.629348679462669</v>
+        <v>1.636090637290988</v>
       </c>
       <c r="P10" t="n">
-        <v>1.670912946349907</v>
+        <v>1.672619806896836</v>
       </c>
       <c r="Q10" t="n">
         <v>14.49319216493947</v>
@@ -1326,31 +1413,40 @@
         <v>0.6294798750229738</v>
       </c>
       <c r="T10" t="n">
-        <v>9.31128856630643</v>
+        <v>-0.02930731673650933</v>
       </c>
       <c r="U10" t="n">
-        <v>-4.765380890630269</v>
+        <v>-0.01888149533613426</v>
       </c>
       <c r="V10" t="n">
+        <v>-0.000295988384476864</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.852804213863806e-05</v>
+      </c>
+      <c r="X10" t="n">
         <v>0.8410196452352154</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>3.574689640047302</v>
       </c>
-      <c r="X10" t="n">
-        <v>0.09112952584290257</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.2607553231189845</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1.796472690458856</v>
+        <v>0.08505993963216785</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.08763922433184135</v>
+        <v>0.2356559159896978</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.04156426688723824</v>
+        <v>1.555646452665054</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.07495929057509954</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0365291696058474</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0003645164266155021</v>
       </c>
     </row>
     <row r="11">
@@ -1361,46 +1457,46 @@
         <v>4.733783058800967</v>
       </c>
       <c r="C11" t="n">
-        <v>4.592765233068048</v>
+        <v>4.681001461036302</v>
       </c>
       <c r="D11" t="n">
-        <v>4.685971915471208</v>
+        <v>4.769251046133015</v>
       </c>
       <c r="E11" t="n">
         <v>4.370864955330944</v>
       </c>
       <c r="F11" t="n">
-        <v>4.756458831539784</v>
+        <v>4.897954341143235</v>
       </c>
       <c r="G11" t="n">
-        <v>5.642684731332617</v>
+        <v>5.69154237085891</v>
       </c>
       <c r="H11" t="n">
         <v>11.66666698455811</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.936386650275722</v>
+        <v>-0.2065118501254548</v>
       </c>
       <c r="J11" t="n">
-        <v>5.871188746126693</v>
+        <v>9.498894123785508</v>
       </c>
       <c r="K11" t="n">
         <v>1.51383809</v>
       </c>
       <c r="L11" t="n">
-        <v>2.039203668532654</v>
+        <v>2.0969657224184</v>
       </c>
       <c r="M11" t="n">
-        <v>2.175852300107213</v>
+        <v>2.218680642165779</v>
       </c>
       <c r="N11" t="n">
         <v>1.4974036</v>
       </c>
       <c r="O11" t="n">
-        <v>1.687794448960621</v>
+        <v>1.708848423904039</v>
       </c>
       <c r="P11" t="n">
-        <v>1.755352861694985</v>
+        <v>1.769048284432477</v>
       </c>
       <c r="Q11" t="n">
         <v>35.50855768145307</v>
@@ -1412,31 +1508,40 @@
         <v>0.7817085427135678</v>
       </c>
       <c r="T11" t="n">
-        <v>3.283231176792256</v>
+        <v>-0.02099259232997752</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.779211753990309</v>
+        <v>-0.0298617815314195</v>
       </c>
       <c r="V11" t="n">
+        <v>-0.006121406406479402</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.005594780056057402</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.812571061195705</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>3.577612786995887</v>
       </c>
-      <c r="X11" t="n">
-        <v>0.09320668240315921</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.8862258997928327</v>
-      </c>
       <c r="Z11" t="n">
-        <v>10.80757539640241</v>
+        <v>0.08824958509671355</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1366486315745594</v>
+        <v>0.793588029715675</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06755841273436336</v>
+        <v>9.705405973910963</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.121714919747379</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.06019986052843818</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0005266263504219992</v>
       </c>
     </row>
     <row r="12">
@@ -1447,46 +1552,46 @@
         <v>3.308082259468748</v>
       </c>
       <c r="C12" t="n">
-        <v>2.935423615099726</v>
+        <v>3.509024579968197</v>
       </c>
       <c r="D12" t="n">
-        <v>3.051578431063327</v>
+        <v>3.623297683991042</v>
       </c>
       <c r="E12" t="n">
         <v>8.433977636784817</v>
       </c>
       <c r="F12" t="n">
-        <v>4.39626939580113</v>
+        <v>4.722991083876258</v>
       </c>
       <c r="G12" t="n">
-        <v>5.644742881575044</v>
+        <v>5.840943416664348</v>
       </c>
       <c r="H12" t="n">
         <v>48.33333206176758</v>
       </c>
       <c r="I12" t="n">
-        <v>12.82673376733879</v>
+        <v>15.1658745002341</v>
       </c>
       <c r="J12" t="n">
-        <v>29.86969587718812</v>
+        <v>30.34898733752184</v>
       </c>
       <c r="K12" t="n">
         <v>2.05518859</v>
       </c>
       <c r="L12" t="n">
-        <v>2.316232897739178</v>
+        <v>2.380569047331821</v>
       </c>
       <c r="M12" t="n">
-        <v>2.58275676544662</v>
+        <v>2.619004116896199</v>
       </c>
       <c r="N12" t="n">
         <v>1.59628851</v>
       </c>
       <c r="O12" t="n">
-        <v>1.784097756953136</v>
+        <v>1.807033177806887</v>
       </c>
       <c r="P12" t="n">
-        <v>1.887642982136431</v>
+        <v>1.899391520229118</v>
       </c>
       <c r="Q12" t="n">
         <v>4.392433825484932</v>
@@ -1498,31 +1603,40 @@
         <v>1.024313230186296</v>
       </c>
       <c r="T12" t="n">
-        <v>8.828900268925466</v>
+        <v>0.0007249708631997254</v>
       </c>
       <c r="U12" t="n">
-        <v>-4.813314345583091</v>
+        <v>-0.06050147960863761</v>
       </c>
       <c r="V12" t="n">
+        <v>-0.02674645057170277</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.02600798774399493</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.786346790399654</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>3.5548188871807</v>
       </c>
-      <c r="X12" t="n">
-        <v>0.1161548159636014</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.248473485773914</v>
-      </c>
       <c r="Z12" t="n">
-        <v>17.04296210984932</v>
+        <v>0.1142731040228453</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2665238677074417</v>
+        <v>1.117952332788089</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1035452251832951</v>
+        <v>15.18311283728774</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2384350695643782</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.09235834242223095</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.000738462827707842</v>
       </c>
     </row>
     <row r="13">
@@ -1533,46 +1647,46 @@
         <v>6.265024225182358</v>
       </c>
       <c r="C13" t="n">
-        <v>4.63879853824145</v>
+        <v>4.490867134122139</v>
       </c>
       <c r="D13" t="n">
-        <v>4.786021202428842</v>
+        <v>4.635069569002582</v>
       </c>
       <c r="E13" t="n">
         <v>5.09604073699208</v>
       </c>
       <c r="F13" t="n">
-        <v>4.049386748250535</v>
+        <v>4.452496790077096</v>
       </c>
       <c r="G13" t="n">
-        <v>5.179151432678202</v>
+        <v>5.470522160274122</v>
       </c>
       <c r="H13" t="n">
         <v>22.33333396911621</v>
       </c>
       <c r="I13" t="n">
-        <v>8.214477949856359</v>
+        <v>9.692467477372805</v>
       </c>
       <c r="J13" t="n">
-        <v>21.84513808783346</v>
+        <v>21.7664823413311</v>
       </c>
       <c r="K13" t="n">
         <v>2.68413713</v>
       </c>
       <c r="L13" t="n">
-        <v>2.287121415887639</v>
+        <v>2.391177334997412</v>
       </c>
       <c r="M13" t="n">
-        <v>2.638982522946429</v>
+        <v>2.706604821426906</v>
       </c>
       <c r="N13" t="n">
         <v>1.64278592</v>
       </c>
       <c r="O13" t="n">
-        <v>1.817772240604401</v>
+        <v>1.853973234778911</v>
       </c>
       <c r="P13" t="n">
-        <v>1.946752217396281</v>
+        <v>1.969362523401777</v>
       </c>
       <c r="Q13" t="n">
         <v>17.10368750618429</v>
@@ -1584,31 +1698,40 @@
         <v>1.324590163934426</v>
       </c>
       <c r="T13" t="n">
-        <v>3.501804111348505</v>
+        <v>0.009120533922375385</v>
       </c>
       <c r="U13" t="n">
-        <v>-4.826443893376199</v>
+        <v>-0.07019994069958724</v>
       </c>
       <c r="V13" t="n">
+        <v>-0.03141764359687116</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.0304102554248713</v>
+      </c>
+      <c r="X13" t="n">
         <v>3.143664257149126</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>2.891726937267691</v>
       </c>
-      <c r="X13" t="n">
-        <v>0.1472226641873924</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.129764684427666</v>
-      </c>
       <c r="Z13" t="n">
-        <v>13.6306601379771</v>
+        <v>0.1442024348804427</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3518611070587907</v>
+        <v>1.018025370197026</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1289799767918802</v>
+        <v>12.07401486395829</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.3154274864294937</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.1153892886228658</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.001007388171999857</v>
       </c>
     </row>
     <row r="14">
@@ -1619,46 +1742,46 @@
         <v>5.102452537774838</v>
       </c>
       <c r="C14" t="n">
-        <v>4.952708134264015</v>
+        <v>5.157933467361032</v>
       </c>
       <c r="D14" t="n">
-        <v>5.154054525646765</v>
+        <v>5.351065885049699</v>
       </c>
       <c r="E14" t="n">
         <v>9.888864910520567</v>
       </c>
       <c r="F14" t="n">
-        <v>6.80960701413601</v>
+        <v>7.02308086157139</v>
       </c>
       <c r="G14" t="n">
-        <v>8.332069175891752</v>
+        <v>8.39682451050151</v>
       </c>
       <c r="H14" t="n">
         <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>3.26077728664805</v>
+        <v>6.168805874154996</v>
       </c>
       <c r="J14" t="n">
-        <v>20.07087259791499</v>
+        <v>21.20429605383146</v>
       </c>
       <c r="K14" t="n">
         <v>2.62030861</v>
       </c>
       <c r="L14" t="n">
-        <v>2.528037769817089</v>
+        <v>2.625796891688059</v>
       </c>
       <c r="M14" t="n">
-        <v>2.917261858019484</v>
+        <v>2.975619533785916</v>
       </c>
       <c r="N14" t="n">
         <v>1.75897506</v>
       </c>
       <c r="O14" t="n">
-        <v>1.941706971941918</v>
+        <v>1.980718141508003</v>
       </c>
       <c r="P14" t="n">
-        <v>2.102298075123608</v>
+        <v>2.124780261450438</v>
       </c>
       <c r="Q14" t="n">
         <v>28.67942852294387</v>
@@ -1670,31 +1793,40 @@
         <v>1.683044881196832</v>
       </c>
       <c r="T14" t="n">
-        <v>4.278648442135946</v>
+        <v>0.01933156917655629</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.846875781021601</v>
+        <v>-0.08685919127319508</v>
       </c>
       <c r="V14" t="n">
+        <v>-0.03620255172351428</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.03482696475469549</v>
+      </c>
+      <c r="X14" t="n">
         <v>4.104742762744237</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>2.972223430301435</v>
       </c>
-      <c r="X14" t="n">
-        <v>0.2013463913827493</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.522462161755741</v>
-      </c>
       <c r="Z14" t="n">
-        <v>16.81009531126694</v>
+        <v>0.1931324176886662</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3892240882023952</v>
+        <v>1.37374364893012</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.16059110318169</v>
+        <v>15.03549017967646</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.3498226420978576</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1440621199424348</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.001375586968818787</v>
       </c>
     </row>
     <row r="15">
@@ -1705,46 +1837,46 @@
         <v>5.038183941191221</v>
       </c>
       <c r="C15" t="n">
-        <v>5.482688580892855</v>
+        <v>5.732073620672748</v>
       </c>
       <c r="D15" t="n">
-        <v>5.752346961853759</v>
+        <v>5.992103053940109</v>
       </c>
       <c r="E15" t="n">
         <v>9.269204386336938</v>
       </c>
       <c r="F15" t="n">
-        <v>8.807912044080773</v>
+        <v>9.126670091127446</v>
       </c>
       <c r="G15" t="n">
-        <v>9.689150780674019</v>
+        <v>9.900676443224841</v>
       </c>
       <c r="H15" t="n">
         <v>19.66666603088379</v>
       </c>
       <c r="I15" t="n">
-        <v>5.865598936969633</v>
+        <v>8.808624800736107</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17182422945953</v>
+        <v>22.242534545903</v>
       </c>
       <c r="K15" t="n">
         <v>3.05769883</v>
       </c>
       <c r="L15" t="n">
-        <v>3.153048869887412</v>
+        <v>3.239233816935626</v>
       </c>
       <c r="M15" t="n">
-        <v>3.560826010827981</v>
+        <v>3.604711091070687</v>
       </c>
       <c r="N15" t="n">
         <v>1.94721641</v>
       </c>
       <c r="O15" t="n">
-        <v>2.145508341971238</v>
+        <v>2.187942479736911</v>
       </c>
       <c r="P15" t="n">
-        <v>2.320890683920484</v>
+        <v>2.344733986517406</v>
       </c>
       <c r="Q15" t="n">
         <v>40.09111468532782</v>
@@ -1756,31 +1888,40 @@
         <v>1.872200895713372</v>
       </c>
       <c r="T15" t="n">
-        <v>1.320002770348694</v>
+        <v>0.0221717436853455</v>
       </c>
       <c r="U15" t="n">
-        <v>-4.863051459681091</v>
+        <v>-0.09908871752493198</v>
       </c>
       <c r="V15" t="n">
+        <v>-0.03266006212643902</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.03077909161387904</v>
+      </c>
+      <c r="X15" t="n">
         <v>3.017003504476579</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>2.250584675231826</v>
       </c>
-      <c r="X15" t="n">
-        <v>0.2696583809609034</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.8812387365932466</v>
-      </c>
       <c r="Z15" t="n">
-        <v>15.3062252924899</v>
+        <v>0.2600294332673618</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4077771409405693</v>
+        <v>0.7740063520973948</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1753823419492462</v>
+        <v>13.4339097451669</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.3654772741350607</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.156791506780495</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.001880970512559976</v>
       </c>
     </row>
     <row r="16">
@@ -1791,46 +1932,46 @@
         <v>5.75549498083987</v>
       </c>
       <c r="C16" t="n">
-        <v>5.505686474753395</v>
+        <v>5.593035215509468</v>
       </c>
       <c r="D16" t="n">
-        <v>5.809621549778978</v>
+        <v>5.88770697675016</v>
       </c>
       <c r="E16" t="n">
         <v>9.970973166629804</v>
       </c>
       <c r="F16" t="n">
-        <v>8.204909030485688</v>
+        <v>8.52776453567278</v>
       </c>
       <c r="G16" t="n">
-        <v>9.524404161812692</v>
+        <v>9.741312558054574</v>
       </c>
       <c r="H16" t="n">
         <v>32.66666793823242</v>
       </c>
       <c r="I16" t="n">
-        <v>8.015914263718628</v>
+        <v>10.89272377601498</v>
       </c>
       <c r="J16" t="n">
-        <v>27.21708107673818</v>
+        <v>28.09788040369346</v>
       </c>
       <c r="K16" t="n">
         <v>4.22671337</v>
       </c>
       <c r="L16" t="n">
-        <v>3.562223307329528</v>
+        <v>3.669034021432198</v>
       </c>
       <c r="M16" t="n">
-        <v>3.941656099057644</v>
+        <v>4.009290449505922</v>
       </c>
       <c r="N16" t="n">
         <v>2.40126382</v>
       </c>
       <c r="O16" t="n">
-        <v>2.292298315897901</v>
+        <v>2.342343496894468</v>
       </c>
       <c r="P16" t="n">
-        <v>2.484052237611872</v>
+        <v>2.514523770441072</v>
       </c>
       <c r="Q16" t="n">
         <v>30.21818142720733</v>
@@ -1842,31 +1983,40 @@
         <v>1.909121395036888</v>
       </c>
       <c r="T16" t="n">
-        <v>1.522993126223682</v>
+        <v>0.02543743130201781</v>
       </c>
       <c r="U16" t="n">
-        <v>-4.880354700123468</v>
+        <v>-0.1121312753026862</v>
       </c>
       <c r="V16" t="n">
+        <v>-0.03031929310967652</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.02787615318839265</v>
+      </c>
+      <c r="X16" t="n">
         <v>2.79870693437819</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>-0.219016638976699</v>
       </c>
-      <c r="X16" t="n">
-        <v>0.3039350750255831</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.319495131327004</v>
-      </c>
       <c r="Z16" t="n">
-        <v>19.20116681301955</v>
+        <v>0.2946717612406919</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3794327917281159</v>
+        <v>1.213548022381794</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1917539217139708</v>
+        <v>17.20515662767848</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3402564280737246</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.172180273546604</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.002443139921283866</v>
       </c>
     </row>
     <row r="17">
@@ -1877,46 +2027,46 @@
         <v>4.648212409207275</v>
       </c>
       <c r="C17" t="n">
-        <v>4.595440653567193</v>
+        <v>4.858304431543456</v>
       </c>
       <c r="D17" t="n">
-        <v>4.906247742980721</v>
+        <v>5.163050389767069</v>
       </c>
       <c r="E17" t="n">
         <v>2.450338900423787</v>
       </c>
       <c r="F17" t="n">
-        <v>1.572629439578221</v>
+        <v>1.903138848851412</v>
       </c>
       <c r="G17" t="n">
-        <v>2.116962184505387</v>
+        <v>2.39407137153823</v>
       </c>
       <c r="H17" t="n">
         <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>5.43541804545967</v>
+        <v>8.779858033152021</v>
       </c>
       <c r="J17" t="n">
-        <v>18.63255475790504</v>
+        <v>20.45377905389774</v>
       </c>
       <c r="K17" t="n">
         <v>4.17914969</v>
       </c>
       <c r="L17" t="n">
-        <v>3.140618799530676</v>
+        <v>3.2556786394006</v>
       </c>
       <c r="M17" t="n">
-        <v>3.534653124756608</v>
+        <v>3.613152087650594</v>
       </c>
       <c r="N17" t="n">
         <v>2.36598926</v>
       </c>
       <c r="O17" t="n">
-        <v>2.20462859098842</v>
+        <v>2.260030857127443</v>
       </c>
       <c r="P17" t="n">
-        <v>2.402930955765044</v>
+        <v>2.438618619779124</v>
       </c>
       <c r="Q17" t="n">
         <v>-46.79661489942228</v>
@@ -1928,31 +2078,40 @@
         <v>1.852467443454421</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.214402907130108</v>
+        <v>0.02179688598213175</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.882414805952292</v>
+        <v>-0.1098773244121425</v>
       </c>
       <c r="V17" t="n">
+        <v>-0.02356642946530574</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.02056173744951462</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.379070653548736</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>-0.8560581919365262</v>
       </c>
-      <c r="X17" t="n">
-        <v>0.3108070894135277</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.5443327449271669</v>
-      </c>
       <c r="Z17" t="n">
-        <v>13.19713671244537</v>
+        <v>0.3047459582236129</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.394034325225932</v>
+        <v>0.4909325226868178</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1983023647766244</v>
+        <v>11.67392102074572</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3574734482499937</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.1785877626516816</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.003004692015791122</v>
       </c>
     </row>
     <row r="18">
@@ -1963,46 +2122,46 @@
         <v>4.594817594852429</v>
       </c>
       <c r="C18" t="n">
-        <v>4.262462616745046</v>
+        <v>4.509982813991066</v>
       </c>
       <c r="D18" t="n">
-        <v>4.574022830805896</v>
+        <v>4.818127207084889</v>
       </c>
       <c r="E18" t="n">
         <v>3.292553462997105</v>
       </c>
       <c r="F18" t="n">
-        <v>3.534655769737913</v>
+        <v>3.868004306162831</v>
       </c>
       <c r="G18" t="n">
-        <v>4.712559036484948</v>
+        <v>4.977062661420195</v>
       </c>
       <c r="H18" t="n">
         <v>23.66666603088379</v>
       </c>
       <c r="I18" t="n">
-        <v>5.189224596291979</v>
+        <v>8.24072096272482</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94198039227218</v>
+        <v>25.2334257974624</v>
       </c>
       <c r="K18" t="n">
         <v>2.86811918</v>
       </c>
       <c r="L18" t="n">
-        <v>2.353756290596321</v>
+        <v>2.474188411613608</v>
       </c>
       <c r="M18" t="n">
-        <v>2.701523845719474</v>
+        <v>2.791264540665404</v>
       </c>
       <c r="N18" t="n">
         <v>2.21937769</v>
       </c>
       <c r="O18" t="n">
-        <v>2.146100836360648</v>
+        <v>2.207282812407255</v>
       </c>
       <c r="P18" t="n">
-        <v>2.356614523441314</v>
+        <v>2.39788810534662</v>
       </c>
       <c r="Q18" t="n">
         <v>-16.02695231088691</v>
@@ -2014,31 +2173,40 @@
         <v>1.825654008438819</v>
       </c>
       <c r="T18" t="n">
-        <v>-3.578556589685178</v>
+        <v>0.01246862472386223</v>
       </c>
       <c r="U18" t="n">
-        <v>-4.876782449965692</v>
+        <v>-0.1002170725125975</v>
       </c>
       <c r="V18" t="n">
+        <v>-0.01256007619399035</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.009007085136554238</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.180187139258738</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>-0.2096032942362047</v>
       </c>
-      <c r="X18" t="n">
-        <v>0.31156021406085</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.177903266747035</v>
-      </c>
       <c r="Z18" t="n">
-        <v>18.7527557959802</v>
+        <v>0.3081443930938228</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3477675551231534</v>
+        <v>1.109058355257365</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2105136870806659</v>
+        <v>16.99270483473758</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.3170761290517956</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.1906052929393653</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.003552991057436117</v>
       </c>
     </row>
     <row r="19">
@@ -2049,46 +2217,46 @@
         <v>4.793497920448075</v>
       </c>
       <c r="C19" t="n">
-        <v>4.275559932138312</v>
+        <v>4.586033718870884</v>
       </c>
       <c r="D19" t="n">
-        <v>4.574731914166477</v>
+        <v>4.884270427277159</v>
       </c>
       <c r="E19" t="n">
         <v>3.752370235210378</v>
       </c>
       <c r="F19" t="n">
-        <v>3.680312318244892</v>
+        <v>3.996404405348645</v>
       </c>
       <c r="G19" t="n">
-        <v>3.852885053568864</v>
+        <v>4.181742370894977</v>
       </c>
       <c r="H19" t="n">
         <v>21.5</v>
       </c>
       <c r="I19" t="n">
-        <v>7.436236220797866</v>
+        <v>10.09105192903241</v>
       </c>
       <c r="J19" t="n">
-        <v>18.84298984964137</v>
+        <v>20.31033687947338</v>
       </c>
       <c r="K19" t="n">
         <v>2.07325087</v>
       </c>
       <c r="L19" t="n">
-        <v>2.490955646003596</v>
+        <v>2.613817521334542</v>
       </c>
       <c r="M19" t="n">
-        <v>2.848075974006342</v>
+        <v>2.944961390711116</v>
       </c>
       <c r="N19" t="n">
         <v>2.25862414</v>
       </c>
       <c r="O19" t="n">
-        <v>2.205727656321983</v>
+        <v>2.271943163721039</v>
       </c>
       <c r="P19" t="n">
-        <v>2.415663592810867</v>
+        <v>2.463276945846903</v>
       </c>
       <c r="Q19" t="n">
         <v>-13.55379954518234</v>
@@ -2100,31 +2268,40 @@
         <v>1.733470719560364</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.302015248182187</v>
+        <v>0.008992084701161085</v>
       </c>
       <c r="U19" t="n">
-        <v>-4.876178618056888</v>
+        <v>-0.09574139239785673</v>
       </c>
       <c r="V19" t="n">
+        <v>-0.007404400788782795</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.003344628117466719</v>
+      </c>
+      <c r="X19" t="n">
         <v>-0.1313564579856536</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>-0.7746714240972175</v>
       </c>
-      <c r="X19" t="n">
-        <v>0.2991719820281649</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.1725727353239717</v>
-      </c>
       <c r="Z19" t="n">
-        <v>11.4067536288435</v>
+        <v>0.2982367084062751</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3571203280027468</v>
+        <v>0.1853379655463319</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2099359364888844</v>
+        <v>10.21928495044096</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3311438693765743</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.1913337821258638</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.004059772671316075</v>
       </c>
     </row>
     <row r="20">
@@ -2135,46 +2312,46 @@
         <v>3.992547183212025</v>
       </c>
       <c r="C20" t="n">
-        <v>4.060985426915061</v>
+        <v>4.361994061116264</v>
       </c>
       <c r="D20" t="n">
-        <v>4.36201495080294</v>
+        <v>4.661428937491749</v>
       </c>
       <c r="E20" t="n">
         <v>2.685393864435426</v>
       </c>
       <c r="F20" t="n">
-        <v>3.238459190129984</v>
+        <v>3.631280253875747</v>
       </c>
       <c r="G20" t="n">
-        <v>3.348465181915543</v>
+        <v>3.799309081415556</v>
       </c>
       <c r="H20" t="n">
         <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>6.410655727820568</v>
+        <v>9.72880565598402</v>
       </c>
       <c r="J20" t="n">
-        <v>15.4213946016042</v>
+        <v>18.14747006296136</v>
       </c>
       <c r="K20" t="n">
         <v>1.36626254</v>
       </c>
       <c r="L20" t="n">
-        <v>2.557148072903245</v>
+        <v>2.688133993306547</v>
       </c>
       <c r="M20" t="n">
-        <v>2.780693184199905</v>
+        <v>2.900747554491758</v>
       </c>
       <c r="N20" t="n">
         <v>1.75489679</v>
       </c>
       <c r="O20" t="n">
-        <v>2.210056666860764</v>
+        <v>2.283234031005922</v>
       </c>
       <c r="P20" t="n">
-        <v>2.399593629120584</v>
+        <v>2.457614514426512</v>
       </c>
       <c r="Q20" t="n">
         <v>-13.95488187256424</v>
@@ -2186,31 +2363,40 @@
         <v>1.642953929539295</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.25184742428992</v>
+        <v>0.005744859889104281</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.873219706901331</v>
+        <v>-0.08905033559989128</v>
       </c>
       <c r="V20" t="n">
+        <v>-0.003192439334463337</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.001362848956093288</v>
+      </c>
+      <c r="X20" t="n">
         <v>-1.318912018775364</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>-0.6383455064458143</v>
       </c>
-      <c r="X20" t="n">
-        <v>0.3010295238878786</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.1100059917855596</v>
-      </c>
       <c r="Z20" t="n">
-        <v>9.01073887378363</v>
+        <v>0.2994348763754848</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2235451112966609</v>
+        <v>0.1680288275398087</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1895369622598202</v>
+        <v>8.41866440697734</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2126135611852105</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1743804834205904</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.004555288290556625</v>
       </c>
     </row>
   </sheetData>
